--- a/Code/Results/Cases/Case_4_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.30076232818134</v>
+        <v>12.35843671810672</v>
       </c>
       <c r="C2">
-        <v>9.902879661865786</v>
+        <v>5.508036341809289</v>
       </c>
       <c r="D2">
-        <v>7.152448353223138</v>
+        <v>5.999005911920817</v>
       </c>
       <c r="E2">
-        <v>29.52677337846978</v>
+        <v>16.35999277170716</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.69913495201118</v>
+        <v>41.71122937633841</v>
       </c>
       <c r="H2">
-        <v>12.71169660737253</v>
+        <v>17.06541419583024</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.54698100274497</v>
+        <v>11.63034214925159</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.40160750772521</v>
+        <v>19.86073858918607</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.14049167441895</v>
+        <v>12.04316319846023</v>
       </c>
       <c r="C3">
-        <v>9.231255057024942</v>
+        <v>5.162126300115098</v>
       </c>
       <c r="D3">
-        <v>6.646447001275107</v>
+        <v>5.883397141789339</v>
       </c>
       <c r="E3">
-        <v>27.34194730540938</v>
+        <v>15.43925682576197</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.78725281280408</v>
+        <v>41.32267618239997</v>
       </c>
       <c r="H3">
-        <v>12.4707641968505</v>
+        <v>17.0629749853773</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.54732184841936</v>
+        <v>11.40748985987621</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.57350560212177</v>
+        <v>19.91139020816327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.39122616919868</v>
+        <v>11.84926231524708</v>
       </c>
       <c r="C4">
-        <v>8.798904595276326</v>
+        <v>4.936938499831816</v>
       </c>
       <c r="D4">
-        <v>6.319646422650463</v>
+        <v>5.813138927669579</v>
       </c>
       <c r="E4">
-        <v>25.94149227943249</v>
+        <v>14.85031651072761</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.61840017872093</v>
+        <v>41.09515039061506</v>
       </c>
       <c r="H4">
-        <v>12.33193437059548</v>
+        <v>17.06492943537852</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.90238198793978</v>
+        <v>11.27200816352311</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.68376898154546</v>
+        <v>19.94438800473879</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.07649270963716</v>
+        <v>11.77029817436059</v>
       </c>
       <c r="C5">
-        <v>8.617621768304431</v>
+        <v>4.841956118192806</v>
       </c>
       <c r="D5">
-        <v>6.195844363957706</v>
+        <v>5.784733618210627</v>
       </c>
       <c r="E5">
-        <v>25.35553228753902</v>
+        <v>14.60465718399173</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.14375235458446</v>
+        <v>41.00529488824296</v>
       </c>
       <c r="H5">
-        <v>12.27759182509719</v>
+        <v>17.0665927371599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.63162244082402</v>
+        <v>11.21722003730775</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.72985289373166</v>
+        <v>19.95831195949065</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.02365985859925</v>
+        <v>11.75719335736249</v>
       </c>
       <c r="C6">
-        <v>8.587210092611391</v>
+        <v>4.82836110280795</v>
       </c>
       <c r="D6">
-        <v>6.17637846957184</v>
+        <v>5.780031813462654</v>
       </c>
       <c r="E6">
-        <v>25.2573001092494</v>
+        <v>14.56353276509722</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.06505149231675</v>
+        <v>40.99054973346959</v>
       </c>
       <c r="H6">
-        <v>12.26870137580272</v>
+        <v>17.06692123850242</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.58618038473101</v>
+        <v>11.2081503910277</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.73757365426598</v>
+        <v>19.96065283508931</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.38701980228587</v>
+        <v>11.84819698747286</v>
       </c>
       <c r="C7">
-        <v>8.79648047861113</v>
+        <v>4.935670553804009</v>
       </c>
       <c r="D7">
-        <v>6.317811684818524</v>
+        <v>5.812754873930466</v>
       </c>
       <c r="E7">
-        <v>25.93365217055156</v>
+        <v>14.84702598442441</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.61199156648814</v>
+        <v>41.09392686793665</v>
       </c>
       <c r="H7">
-        <v>12.33119252844401</v>
+        <v>17.06494835945247</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.89876272162797</v>
+        <v>11.27126745523602</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.684385869192</v>
+        <v>19.94457385650033</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.90826645845043</v>
+        <v>12.24987539025468</v>
       </c>
       <c r="C8">
-        <v>9.675399913842917</v>
+        <v>5.391422816637833</v>
       </c>
       <c r="D8">
-        <v>6.98128787171244</v>
+        <v>5.959018990996423</v>
       </c>
       <c r="E8">
-        <v>28.785408856339</v>
+        <v>16.04757105097803</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.03908192777345</v>
+        <v>41.57501637830266</v>
       </c>
       <c r="H8">
-        <v>12.62669913554714</v>
+        <v>17.06385605281451</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.20869329078135</v>
+        <v>11.55327152310485</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.45987580803818</v>
+        <v>19.87780940499683</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.60557561349719</v>
+        <v>13.02944471616903</v>
       </c>
       <c r="C9">
-        <v>11.24446466902166</v>
+        <v>6.183671058938591</v>
       </c>
       <c r="D9">
-        <v>8.157280764411144</v>
+        <v>6.249737708914597</v>
       </c>
       <c r="E9">
-        <v>33.93166440534033</v>
+        <v>18.24631831249159</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>46.82620496129111</v>
+        <v>42.60204768780628</v>
       </c>
       <c r="H9">
-        <v>13.28107201343652</v>
+        <v>17.08914389940609</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.53588341992334</v>
+        <v>12.11342626673942</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.05895885065619</v>
+        <v>19.761942631747</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.42306879717181</v>
+        <v>13.59024232828602</v>
       </c>
       <c r="C10">
-        <v>12.30949891144096</v>
+        <v>6.704101913143708</v>
       </c>
       <c r="D10">
-        <v>8.949204591766868</v>
+        <v>6.463264250959601</v>
       </c>
       <c r="E10">
-        <v>37.47500120901649</v>
+        <v>19.87580381553409</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.35189283623038</v>
+        <v>43.4018034186447</v>
       </c>
       <c r="H10">
-        <v>13.81151545410279</v>
+        <v>17.12447470300155</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.10707437482829</v>
+        <v>12.52466223366704</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.79164791591995</v>
+        <v>19.68599811417862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.21675048029587</v>
+        <v>13.84143422811712</v>
       </c>
       <c r="C11">
-        <v>12.77665968009807</v>
+        <v>6.927553905406995</v>
       </c>
       <c r="D11">
-        <v>9.294847410164447</v>
+        <v>6.55989818150348</v>
       </c>
       <c r="E11">
-        <v>39.04434306980321</v>
+        <v>20.57566641787696</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.95858157753723</v>
+        <v>43.7741312013851</v>
       </c>
       <c r="H11">
-        <v>14.06466394528826</v>
+        <v>17.14418222197461</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.79397947461829</v>
+        <v>12.71073827541505</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.6768912974036</v>
+        <v>19.65344415347302</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.51277324351638</v>
+        <v>13.93589036150503</v>
       </c>
       <c r="C12">
-        <v>12.95123559239548</v>
+        <v>7.010264674658407</v>
       </c>
       <c r="D12">
-        <v>9.423728028116676</v>
+        <v>6.596380408425444</v>
       </c>
       <c r="E12">
-        <v>39.63337737047976</v>
+        <v>20.83477083854785</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.56766284139174</v>
+        <v>43.91623189579694</v>
       </c>
       <c r="H12">
-        <v>14.16233372640342</v>
+        <v>17.15216656711981</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.05030156199912</v>
+        <v>12.78098325885609</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.63451841540468</v>
+        <v>19.64140372351147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.44921677255384</v>
+        <v>13.91557863760663</v>
       </c>
       <c r="C13">
-        <v>12.91373819990327</v>
+        <v>6.992536080183521</v>
       </c>
       <c r="D13">
-        <v>9.396058929865921</v>
+        <v>6.588528841853441</v>
       </c>
       <c r="E13">
-        <v>39.50673598514502</v>
+        <v>20.77923073570845</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>52.43645101041395</v>
+        <v>43.88558054596287</v>
       </c>
       <c r="H13">
-        <v>14.14121649737215</v>
+        <v>17.15042382468157</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.99526312588395</v>
+        <v>12.76586558561423</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.64359423486322</v>
+        <v>19.64398407265577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.2411937459166</v>
+        <v>13.84921906622965</v>
       </c>
       <c r="C14">
-        <v>12.79106777078307</v>
+        <v>6.934396724746596</v>
       </c>
       <c r="D14">
-        <v>9.305490141716456</v>
+        <v>6.562902035972342</v>
       </c>
       <c r="E14">
-        <v>39.09290281722411</v>
+        <v>20.59710150912841</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.00867573411444</v>
+        <v>43.78580037139377</v>
       </c>
       <c r="H14">
-        <v>14.07266239154567</v>
+        <v>17.14482865523439</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.81514198796686</v>
+        <v>12.71652215446965</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.67338291842176</v>
+        <v>19.65244782492282</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.11319146121819</v>
+        <v>13.80848246736562</v>
       </c>
       <c r="C15">
-        <v>12.71563073070271</v>
+        <v>6.898536712283687</v>
       </c>
       <c r="D15">
-        <v>9.24975575560179</v>
+        <v>6.547189306028079</v>
       </c>
       <c r="E15">
-        <v>38.83876377780417</v>
+        <v>20.48477238064643</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>51.74674769807262</v>
+        <v>43.72482298311797</v>
       </c>
       <c r="H15">
-        <v>14.03090991669015</v>
+        <v>17.141469327146</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.70432517588257</v>
+        <v>12.68626734369738</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.69177362868357</v>
+        <v>19.65766951139263</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3705529747679</v>
+        <v>13.57373865534603</v>
       </c>
       <c r="C16">
-        <v>12.27863365607038</v>
+        <v>6.689231782521393</v>
       </c>
       <c r="D16">
-        <v>8.926329862896804</v>
+        <v>6.456935549150668</v>
       </c>
       <c r="E16">
-        <v>37.37165687795671</v>
+        <v>19.82923607508833</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50.24696723183495</v>
+        <v>43.37763237203367</v>
       </c>
       <c r="H16">
-        <v>13.7952184679658</v>
+        <v>17.12325982926185</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.06164060877261</v>
+        <v>12.5124751981324</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.79929328533874</v>
+        <v>19.68816573923691</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.90664664191085</v>
+        <v>13.4286527450242</v>
       </c>
       <c r="C17">
-        <v>12.00622135801879</v>
+        <v>6.557429013684259</v>
       </c>
       <c r="D17">
-        <v>8.724240805023449</v>
+        <v>6.401411269704591</v>
       </c>
       <c r="E17">
-        <v>36.4613213402618</v>
+        <v>19.4165073816253</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>49.32775900315121</v>
+        <v>43.16674097068108</v>
       </c>
       <c r="H17">
-        <v>13.65373191549321</v>
+        <v>17.11301927565504</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.66038504584854</v>
+        <v>12.40554967310865</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.86707077866835</v>
+        <v>19.70738504689623</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.63668850018801</v>
+        <v>13.34483995648607</v>
       </c>
       <c r="C18">
-        <v>11.84789483812275</v>
+        <v>6.480367776051851</v>
       </c>
       <c r="D18">
-        <v>8.6066234512489</v>
+        <v>6.369430288613438</v>
       </c>
       <c r="E18">
-        <v>35.93365682701852</v>
+        <v>19.17521806515202</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>48.79929704247839</v>
+        <v>43.04625037273693</v>
       </c>
       <c r="H18">
-        <v>13.57346042957629</v>
+        <v>17.10747146123082</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.42695927114718</v>
+        <v>12.34395930313338</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.90669192208686</v>
+        <v>19.71862710532761</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.54474081728128</v>
+        <v>13.31640322894468</v>
       </c>
       <c r="C19">
-        <v>11.7940015297574</v>
+        <v>6.454060998904955</v>
       </c>
       <c r="D19">
-        <v>8.566560343744618</v>
+        <v>6.358595589519626</v>
       </c>
       <c r="E19">
-        <v>35.75427619336372</v>
+        <v>19.0928509850112</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.62040529982846</v>
+        <v>43.00559670747041</v>
       </c>
       <c r="H19">
-        <v>13.54646929255769</v>
+        <v>17.10565188310145</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.34746695085613</v>
+        <v>12.32309280106537</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.9202137048932</v>
+        <v>19.72246568632487</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.95635275957845</v>
+        <v>13.44413573946574</v>
       </c>
       <c r="C20">
-        <v>12.03538895627682</v>
+        <v>6.571589154979307</v>
       </c>
       <c r="D20">
-        <v>8.745895819590864</v>
+        <v>6.407326858132123</v>
       </c>
       <c r="E20">
-        <v>36.55864275489483</v>
+        <v>19.46084630209838</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>49.42558386453826</v>
+        <v>43.18910787422461</v>
       </c>
       <c r="H20">
-        <v>13.66867805107719</v>
+        <v>17.11407398280989</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.70337058484293</v>
+        <v>12.41694190712438</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.859789131123</v>
+        <v>19.70531969826701</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.30241601837014</v>
+        <v>13.86872929076358</v>
       </c>
       <c r="C21">
-        <v>12.82716079568137</v>
+        <v>6.951525329377013</v>
       </c>
       <c r="D21">
-        <v>9.332146055805186</v>
+        <v>6.570432561868424</v>
       </c>
       <c r="E21">
-        <v>39.21459023996004</v>
+        <v>20.65075762481569</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.13430287112269</v>
+        <v>43.81507908383972</v>
       </c>
       <c r="H21">
-        <v>14.09274839255988</v>
+        <v>17.14645794994036</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.86814909629285</v>
+        <v>12.73102200727683</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.66460298871541</v>
+        <v>19.64995402215929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.15588785515564</v>
+        <v>14.14230955019987</v>
       </c>
       <c r="C22">
-        <v>13.33115602237595</v>
+        <v>7.188731301721742</v>
       </c>
       <c r="D22">
-        <v>9.703648626678532</v>
+        <v>6.676368256521434</v>
       </c>
       <c r="E22">
-        <v>40.92036553583457</v>
+        <v>21.39395270758272</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.90870929373916</v>
+        <v>44.23059230775594</v>
       </c>
       <c r="H22">
-        <v>14.38050542030542</v>
+        <v>17.17066174601726</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.60740293888104</v>
+        <v>12.93498916661796</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.54340985607365</v>
+        <v>19.61544268699685</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.70269166733126</v>
+        <v>13.99668434116548</v>
       </c>
       <c r="C23">
-        <v>13.06333637504524</v>
+        <v>7.06314385737388</v>
       </c>
       <c r="D23">
-        <v>9.506402518830932</v>
+        <v>6.619901431253409</v>
       </c>
       <c r="E23">
-        <v>40.01238321519231</v>
+        <v>21.00043908207999</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.96117277881304</v>
+        <v>44.00827779276539</v>
       </c>
       <c r="H23">
-        <v>14.22591378431431</v>
+        <v>17.15746618401437</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.21478537951796</v>
+        <v>12.82627084776438</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.60747216318449</v>
+        <v>19.63370879377146</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.93389077092176</v>
+        <v>13.43713711878438</v>
       </c>
       <c r="C24">
-        <v>12.02220763296795</v>
+        <v>6.565191361451826</v>
       </c>
       <c r="D24">
-        <v>8.736110059978659</v>
+        <v>6.404652602451957</v>
       </c>
       <c r="E24">
-        <v>36.51465720247734</v>
+        <v>19.4408131573359</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>49.38135725225234</v>
+        <v>43.17899344059558</v>
       </c>
       <c r="H24">
-        <v>13.66191757481112</v>
+        <v>17.11359609168967</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.68394536822488</v>
+        <v>12.41179183825663</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.86307913117017</v>
+        <v>19.70625284235848</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.90550434090806</v>
+        <v>12.82017054597568</v>
       </c>
       <c r="C25">
-        <v>10.83592032787948</v>
+        <v>5.980192960530091</v>
       </c>
       <c r="D25">
-        <v>7.852123980803848</v>
+        <v>6.170929981575554</v>
       </c>
       <c r="E25">
-        <v>32.58392673451115</v>
+        <v>17.64355665442167</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.52950230973838</v>
+        <v>42.31583547664321</v>
       </c>
       <c r="H25">
-        <v>13.09563785402689</v>
+        <v>17.07936140139032</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.93134188884498</v>
+        <v>11.96161512267082</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.16290623005234</v>
+        <v>19.79167539701578</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.35843671810672</v>
+        <v>16.30076232818128</v>
       </c>
       <c r="C2">
-        <v>5.508036341809289</v>
+        <v>9.902879661865722</v>
       </c>
       <c r="D2">
-        <v>5.999005911920817</v>
+        <v>7.152448353223129</v>
       </c>
       <c r="E2">
-        <v>16.35999277170716</v>
+        <v>29.52677337846977</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>41.71122937633841</v>
+        <v>42.69913495201131</v>
       </c>
       <c r="H2">
-        <v>17.06541419583024</v>
+        <v>12.71169660737256</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.63034214925159</v>
+        <v>14.54698100274493</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.86073858918607</v>
+        <v>13.40160750772527</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.04316319846023</v>
+        <v>15.14049167441898</v>
       </c>
       <c r="C3">
-        <v>5.162126300115098</v>
+        <v>9.231255057024963</v>
       </c>
       <c r="D3">
-        <v>5.883397141789339</v>
+        <v>6.646447001275152</v>
       </c>
       <c r="E3">
-        <v>15.43925682576197</v>
+        <v>27.34194730540942</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>41.32267618239997</v>
+        <v>40.78725281280393</v>
       </c>
       <c r="H3">
-        <v>17.0629749853773</v>
+        <v>12.4707641968505</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.40748985987621</v>
+        <v>13.54732184841941</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.91139020816327</v>
+        <v>13.57350560212167</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.84926231524708</v>
+        <v>14.39122616919876</v>
       </c>
       <c r="C4">
-        <v>4.936938499831816</v>
+        <v>8.79890459527619</v>
       </c>
       <c r="D4">
-        <v>5.813138927669579</v>
+        <v>6.319646422650566</v>
       </c>
       <c r="E4">
-        <v>14.85031651072761</v>
+        <v>25.94149227943256</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.09515039061506</v>
+        <v>39.61840017872093</v>
       </c>
       <c r="H4">
-        <v>17.06492943537852</v>
+        <v>12.33193437059545</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.27200816352311</v>
+        <v>12.90238198793978</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.94438800473879</v>
+        <v>13.6837689815454</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.77029817436059</v>
+        <v>14.07649270963719</v>
       </c>
       <c r="C5">
-        <v>4.841956118192806</v>
+        <v>8.617621768304584</v>
       </c>
       <c r="D5">
-        <v>5.784733618210627</v>
+        <v>6.195844363957698</v>
       </c>
       <c r="E5">
-        <v>14.60465718399173</v>
+        <v>25.35553228753911</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.00529488824296</v>
+        <v>39.14375235458427</v>
       </c>
       <c r="H5">
-        <v>17.0665927371599</v>
+        <v>12.27759182509705</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.21722003730775</v>
+        <v>12.63162244082408</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.95831195949065</v>
+        <v>13.72985289373154</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75719335736249</v>
+        <v>14.02365985859923</v>
       </c>
       <c r="C6">
-        <v>4.82836110280795</v>
+        <v>8.587210092611407</v>
       </c>
       <c r="D6">
-        <v>5.780031813462654</v>
+        <v>6.176378469571809</v>
       </c>
       <c r="E6">
-        <v>14.56353276509722</v>
+        <v>25.2573001092494</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.99054973346959</v>
+        <v>39.06505149231678</v>
       </c>
       <c r="H6">
-        <v>17.06692123850242</v>
+        <v>12.26870137580273</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.2081503910277</v>
+        <v>12.586180384731</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.96065283508931</v>
+        <v>13.73757365426595</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.84819698747286</v>
+        <v>14.38701980228588</v>
       </c>
       <c r="C7">
-        <v>4.935670553804009</v>
+        <v>8.796480478610983</v>
       </c>
       <c r="D7">
-        <v>5.812754873930466</v>
+        <v>6.317811684818542</v>
       </c>
       <c r="E7">
-        <v>14.84702598442441</v>
+        <v>25.93365217055157</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.09392686793665</v>
+        <v>39.61199156648835</v>
       </c>
       <c r="H7">
-        <v>17.06494835945247</v>
+        <v>12.3311925284441</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.27126745523602</v>
+        <v>12.89876272162796</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.94457385650033</v>
+        <v>13.6843858691921</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.24987539025468</v>
+        <v>15.90826645845033</v>
       </c>
       <c r="C8">
-        <v>5.391422816637833</v>
+        <v>9.675399913843043</v>
       </c>
       <c r="D8">
-        <v>5.959018990996423</v>
+        <v>6.981287871712335</v>
       </c>
       <c r="E8">
-        <v>16.04757105097803</v>
+        <v>28.78540885633902</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.57501637830266</v>
+        <v>42.03908192777354</v>
       </c>
       <c r="H8">
-        <v>17.06385605281451</v>
+        <v>12.62669913554718</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.55327152310485</v>
+        <v>14.20869329078129</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.87780940499683</v>
+        <v>13.45987580803822</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.02944471616903</v>
+        <v>18.60557561349732</v>
       </c>
       <c r="C9">
-        <v>6.183671058938591</v>
+        <v>11.24446466902175</v>
       </c>
       <c r="D9">
-        <v>6.249737708914597</v>
+        <v>8.157280764411084</v>
       </c>
       <c r="E9">
-        <v>18.24631831249159</v>
+        <v>33.93166440534043</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>42.60204768780628</v>
+        <v>46.82620496129107</v>
       </c>
       <c r="H9">
-        <v>17.08914389940609</v>
+        <v>13.28107201343643</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.11342626673942</v>
+        <v>16.5358834199235</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.761942631747</v>
+        <v>13.05895885065603</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.59024232828602</v>
+        <v>20.42306879717192</v>
       </c>
       <c r="C10">
-        <v>6.704101913143708</v>
+        <v>12.30949891144089</v>
       </c>
       <c r="D10">
-        <v>6.463264250959601</v>
+        <v>8.949204591766925</v>
       </c>
       <c r="E10">
-        <v>19.87580381553409</v>
+        <v>37.4750012090165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.4018034186447</v>
+        <v>50.35189283623035</v>
       </c>
       <c r="H10">
-        <v>17.12447470300155</v>
+        <v>13.81151545410274</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.52466223366704</v>
+        <v>18.10707437482834</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.68599811417862</v>
+        <v>12.79164791591994</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.84143422811712</v>
+        <v>21.21675048029585</v>
       </c>
       <c r="C11">
-        <v>6.927553905406995</v>
+        <v>12.77665968009816</v>
       </c>
       <c r="D11">
-        <v>6.55989818150348</v>
+        <v>9.294847410164451</v>
       </c>
       <c r="E11">
-        <v>20.57566641787696</v>
+        <v>39.04434306980321</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.7741312013851</v>
+        <v>51.95858157753717</v>
       </c>
       <c r="H11">
-        <v>17.14418222197461</v>
+        <v>14.06466394528827</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.71073827541505</v>
+        <v>18.79397947461833</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.65344415347302</v>
+        <v>12.67689129740359</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.93589036150503</v>
+        <v>21.51277324351655</v>
       </c>
       <c r="C12">
-        <v>7.010264674658407</v>
+        <v>12.95123559239555</v>
       </c>
       <c r="D12">
-        <v>6.596380408425444</v>
+        <v>9.423728028116757</v>
       </c>
       <c r="E12">
-        <v>20.83477083854785</v>
+        <v>39.63337737047976</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.91623189579694</v>
+        <v>52.56766284139189</v>
       </c>
       <c r="H12">
-        <v>17.15216656711981</v>
+        <v>14.16233372640334</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.78098325885609</v>
+        <v>19.05030156199928</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.64140372351147</v>
+        <v>12.63451841540451</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.91557863760663</v>
+        <v>21.44921677255381</v>
       </c>
       <c r="C13">
-        <v>6.992536080183521</v>
+        <v>12.91373819990324</v>
       </c>
       <c r="D13">
-        <v>6.588528841853441</v>
+        <v>9.39605892986593</v>
       </c>
       <c r="E13">
-        <v>20.77923073570845</v>
+        <v>39.50673598514496</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.88558054596287</v>
+        <v>52.43645101041392</v>
       </c>
       <c r="H13">
-        <v>17.15042382468157</v>
+        <v>14.14121649737216</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.76586558561423</v>
+        <v>18.99526312588393</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.64398407265577</v>
+        <v>12.64359423486327</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.84921906622965</v>
+        <v>21.24119374591654</v>
       </c>
       <c r="C14">
-        <v>6.934396724746596</v>
+        <v>12.79106777078294</v>
       </c>
       <c r="D14">
-        <v>6.562902035972342</v>
+        <v>9.305490141716415</v>
       </c>
       <c r="E14">
-        <v>20.59710150912841</v>
+        <v>39.09290281722414</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.78580037139377</v>
+        <v>52.0086757341144</v>
       </c>
       <c r="H14">
-        <v>17.14482865523439</v>
+        <v>14.07266239154571</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.71652215446965</v>
+        <v>18.81514198796679</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.65244782492282</v>
+        <v>12.67338291842186</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.80848246736562</v>
+        <v>21.11319146121823</v>
       </c>
       <c r="C15">
-        <v>6.898536712283687</v>
+        <v>12.7156307307028</v>
       </c>
       <c r="D15">
-        <v>6.547189306028079</v>
+        <v>9.249755755601885</v>
       </c>
       <c r="E15">
-        <v>20.48477238064643</v>
+        <v>38.83876377780427</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.72482298311797</v>
+        <v>51.74674769807262</v>
       </c>
       <c r="H15">
-        <v>17.141469327146</v>
+        <v>14.03090991669012</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.68626734369738</v>
+        <v>18.70432517588265</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.65766951139263</v>
+        <v>12.69177362868352</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.57373865534603</v>
+        <v>20.37055297476781</v>
       </c>
       <c r="C16">
-        <v>6.689231782521393</v>
+        <v>12.27863365607052</v>
       </c>
       <c r="D16">
-        <v>6.456935549150668</v>
+        <v>8.926329862896772</v>
       </c>
       <c r="E16">
-        <v>19.82923607508833</v>
+        <v>37.37165687795667</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.37763237203367</v>
+        <v>50.24696723183504</v>
       </c>
       <c r="H16">
-        <v>17.12325982926185</v>
+        <v>13.79521846796583</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.5124751981324</v>
+        <v>18.06164060877258</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.68816573923691</v>
+        <v>12.79929328533877</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.4286527450242</v>
+        <v>19.90664664191088</v>
       </c>
       <c r="C17">
-        <v>6.557429013684259</v>
+        <v>12.00622135801873</v>
       </c>
       <c r="D17">
-        <v>6.401411269704591</v>
+        <v>8.724240805023415</v>
       </c>
       <c r="E17">
-        <v>19.4165073816253</v>
+        <v>36.46132134026185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.16674097068108</v>
+        <v>49.32775900315117</v>
       </c>
       <c r="H17">
-        <v>17.11301927565504</v>
+        <v>13.65373191549313</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.40554967310865</v>
+        <v>17.66038504584856</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.70738504689623</v>
+        <v>12.86707077866829</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.34483995648607</v>
+        <v>19.63668850018795</v>
       </c>
       <c r="C18">
-        <v>6.480367776051851</v>
+        <v>11.84789483812261</v>
       </c>
       <c r="D18">
-        <v>6.369430288613438</v>
+        <v>8.606623451248902</v>
       </c>
       <c r="E18">
-        <v>19.17521806515202</v>
+        <v>35.93365682701832</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.04625037273693</v>
+        <v>48.79929704247834</v>
       </c>
       <c r="H18">
-        <v>17.10747146123082</v>
+        <v>13.57346042957625</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.34395930313338</v>
+        <v>17.42695927114715</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.71862710532761</v>
+        <v>12.9066919220869</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.31640322894468</v>
+        <v>19.5447408172813</v>
       </c>
       <c r="C19">
-        <v>6.454060998904955</v>
+        <v>11.79400152975755</v>
       </c>
       <c r="D19">
-        <v>6.358595589519626</v>
+        <v>8.566560343744634</v>
       </c>
       <c r="E19">
-        <v>19.0928509850112</v>
+        <v>35.75427619336381</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.00559670747041</v>
+        <v>48.62040529982838</v>
       </c>
       <c r="H19">
-        <v>17.10565188310145</v>
+        <v>13.5464692925576</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.32309280106537</v>
+        <v>17.34746695085623</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.72246568632487</v>
+        <v>12.92021370489311</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.44413573946574</v>
+        <v>19.95635275957844</v>
       </c>
       <c r="C20">
-        <v>6.571589154979307</v>
+        <v>12.03538895627687</v>
       </c>
       <c r="D20">
-        <v>6.407326858132123</v>
+        <v>8.745895819590782</v>
       </c>
       <c r="E20">
-        <v>19.46084630209838</v>
+        <v>36.55864275489472</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.18910787422461</v>
+        <v>49.42558386453844</v>
       </c>
       <c r="H20">
-        <v>17.11407398280989</v>
+        <v>13.66867805107724</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.41694190712438</v>
+        <v>17.70337058484295</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70531969826701</v>
+        <v>12.85978913112305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.86872929076358</v>
+        <v>21.30241601837011</v>
       </c>
       <c r="C21">
-        <v>6.951525329377013</v>
+        <v>12.82716079568143</v>
       </c>
       <c r="D21">
-        <v>6.570432561868424</v>
+        <v>9.332146055805254</v>
       </c>
       <c r="E21">
-        <v>20.65075762481569</v>
+        <v>39.21459023996002</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.81507908383972</v>
+        <v>52.13430287112261</v>
       </c>
       <c r="H21">
-        <v>17.14645794994036</v>
+        <v>14.0927483925599</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.73102200727683</v>
+        <v>18.86814909629281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.64995402215929</v>
+        <v>12.66460298871542</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.14230955019987</v>
+        <v>22.15588785515553</v>
       </c>
       <c r="C22">
-        <v>7.188731301721742</v>
+        <v>13.33115602237601</v>
       </c>
       <c r="D22">
-        <v>6.676368256521434</v>
+        <v>9.703648626678557</v>
       </c>
       <c r="E22">
-        <v>21.39395270758272</v>
+        <v>40.92036553583448</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>44.23059230775594</v>
+        <v>53.90870929373916</v>
       </c>
       <c r="H22">
-        <v>17.17066174601726</v>
+        <v>14.38050542030545</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.93498916661796</v>
+        <v>19.60740293888098</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.61544268699685</v>
+        <v>12.54340985607373</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99668434116548</v>
+        <v>21.70269166733122</v>
       </c>
       <c r="C23">
-        <v>7.06314385737388</v>
+        <v>13.06333637504517</v>
       </c>
       <c r="D23">
-        <v>6.619901431253409</v>
+        <v>9.506402518830877</v>
       </c>
       <c r="E23">
-        <v>21.00043908207999</v>
+        <v>40.01238321519235</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.00827779276539</v>
+        <v>52.96117277881298</v>
       </c>
       <c r="H23">
-        <v>17.15746618401437</v>
+        <v>14.2259137843143</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.82627084776438</v>
+        <v>19.2147853795179</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.63370879377146</v>
+        <v>12.60747216318447</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.43713711878438</v>
+        <v>19.93389077092172</v>
       </c>
       <c r="C24">
-        <v>6.565191361451826</v>
+        <v>12.02220763296797</v>
       </c>
       <c r="D24">
-        <v>6.404652602451957</v>
+        <v>8.736110059978749</v>
       </c>
       <c r="E24">
-        <v>19.4408131573359</v>
+        <v>36.51465720247728</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.17899344059558</v>
+        <v>49.38135725225248</v>
       </c>
       <c r="H24">
-        <v>17.11359609168967</v>
+        <v>13.66191757481118</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.41179183825663</v>
+        <v>17.68394536822484</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.70625284235848</v>
+        <v>12.8630791311703</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82017054597568</v>
+        <v>17.90550434090799</v>
       </c>
       <c r="C25">
-        <v>5.980192960530091</v>
+        <v>10.83592032787956</v>
       </c>
       <c r="D25">
-        <v>6.170929981575554</v>
+        <v>7.852123980803871</v>
       </c>
       <c r="E25">
-        <v>17.64355665442167</v>
+        <v>32.58392673451105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.31583547664321</v>
+        <v>45.52950230973823</v>
       </c>
       <c r="H25">
-        <v>17.07936140139032</v>
+        <v>13.09563785402686</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.96161512267082</v>
+        <v>15.93134188884494</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.79167539701578</v>
+        <v>13.16290623005233</v>
       </c>
       <c r="O25">
         <v>0</v>
